--- a/Tests/Data/Gacha.xlsx
+++ b/Tests/Data/Gacha.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gacha" sheetId="4" r:id="rId1"/>
     <sheet name="__Group1" sheetId="1" r:id="rId2"/>
     <sheet name="__Group2" sheetId="2" r:id="rId3"/>
     <sheet name="__Group3" sheetId="3" r:id="rId4"/>
+    <sheet name="my_test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>hotpot_food_006</t>
   </si>
@@ -817,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1450,4 +1451,87 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tests/Data/Gacha.xlsx
+++ b/Tests/Data/Gacha.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE7640-22A1-4848-BA43-ACDF9C507BA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="3960" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gacha" sheetId="4" r:id="rId1"/>
@@ -381,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,7 +515,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -530,7 +531,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,9 +606,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,6 +658,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,11 +850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -842,24 +877,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -902,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1281,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1395,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1454,11 +1489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1476,24 +1511,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
